--- a/biology/Médecine/Charles_Brisset/Charles_Brisset.xlsx
+++ b/biology/Médecine/Charles_Brisset/Charles_Brisset.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Charles Brisset, né le 27 octobre 1914 à Montreuil[1] et mort le 9 mai 1989 à Ville-d'Avray, est un médecin psychiatre français.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Charles Brisset, né le 27 octobre 1914 à Montreuil et mort le 9 mai 1989 à Ville-d'Avray, est un médecin psychiatre français.
 </t>
         </is>
       </c>
@@ -511,13 +523,15 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il est le fondateur de l’Association française de psychiatrie et de la revue Psychiatrie française[2]. Il fonde, avec Jacques Alfred Gendrot, la Clinique médicale de Ville-d’Avray en 1948[3].
-« Le premier réquisitoire paru dans la littérature psychiatrique française contre la répression en Argentine fut publié par Charles Brisset dans Psychiatrie française, en 1977 »[4].
-Sa thèse de médecine avait pour titre Corps et Âme[5],[6].
-Il est le coauteur du Manuel de psychiatrie, plusieurs fois réédité et traduit en différentes langues[7]. 
-Il était le père de Claire Brisset[8].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est le fondateur de l’Association française de psychiatrie et de la revue Psychiatrie française. Il fonde, avec Jacques Alfred Gendrot, la Clinique médicale de Ville-d’Avray en 1948.
+« Le premier réquisitoire paru dans la littérature psychiatrique française contre la répression en Argentine fut publié par Charles Brisset dans Psychiatrie française, en 1977 ».
+Sa thèse de médecine avait pour titre Corps et Âme,.
+Il est le coauteur du Manuel de psychiatrie, plusieurs fois réédité et traduit en différentes langues. 
+Il était le père de Claire Brisset.
 </t>
         </is>
       </c>
@@ -546,7 +560,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Ch. Brisset : L'Avenir de la psychiatrie en France, Science de l'homme, 1972. (SUDOC 225988453)(BNF 35370590)
 Henri Ey, P. Bernard et Ch. Brisset : Manuel de psychiatrie, 1960. rééd. en 2010, Masson,  (ISBN 2294711580)
